--- a/Plan/Table/Live_Data/11.Item_Table.xlsx
+++ b/Plan/Table/Live_Data/11.Item_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDAB7E2-481F-49A6-8BED-174B0FDFBF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A6FCF3-D84F-453C-B48C-852484C1B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4FB2BECC-8FA4-46CB-95E5-E871269A53E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5F1273DF-0A94-45E4-95E0-A9311B9DF85C}"/>
   </bookViews>
   <sheets>
     <sheet name="11.Item_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>item_id</t>
   </si>
@@ -77,7 +77,19 @@
     <t>atk_max</t>
   </si>
   <si>
+    <t>max_hp</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>magic_armor</t>
+  </si>
+  <si>
     <t>atk_speed</t>
+  </si>
+  <si>
+    <t>atk_range</t>
   </si>
   <si>
     <t>battle_option_type_1</t>
@@ -105,63 +117,6 @@
   </si>
   <si>
     <t>b3_value2</t>
-  </si>
-  <si>
-    <t>battle_option_type_4</t>
-  </si>
-  <si>
-    <t>b4_value1</t>
-  </si>
-  <si>
-    <t>b4_value2</t>
-  </si>
-  <si>
-    <t>item_icon</t>
-  </si>
-  <si>
-    <t>item_11001</t>
-  </si>
-  <si>
-    <t>item_11002</t>
-  </si>
-  <si>
-    <t>item_11003</t>
-  </si>
-  <si>
-    <t>item_11004</t>
-  </si>
-  <si>
-    <t>item_11005</t>
-  </si>
-  <si>
-    <t>item_11006</t>
-  </si>
-  <si>
-    <t>item_11007</t>
-  </si>
-  <si>
-    <t>item_11008</t>
-  </si>
-  <si>
-    <t>item_11009</t>
-  </si>
-  <si>
-    <t>item_11010</t>
-  </si>
-  <si>
-    <t>item_11011</t>
-  </si>
-  <si>
-    <t>item_11012</t>
-  </si>
-  <si>
-    <t>item_11013</t>
-  </si>
-  <si>
-    <t>item_11014</t>
-  </si>
-  <si>
-    <t>item_11015</t>
   </si>
 </sst>
 </file>
@@ -544,9 +499,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09987C92-1F36-4F42-A1E0-5DAEC9D7F288}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD0B68-D450-4A58-830D-A376FB0610E9}">
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AA1048576"/>
@@ -678,19 +632,19 @@
         <v>4</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>100</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -716,8 +670,8 @@
       <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2" t="s">
-        <v>27</v>
+      <c r="AA2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -737,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -761,19 +715,19 @@
         <v>6</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>100</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -799,8 +753,8 @@
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" t="s">
-        <v>28</v>
+      <c r="AA3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
@@ -820,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -844,29 +798,29 @@
         <v>8</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="O4">
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
         <v>113</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>10</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
         <v>0</v>
       </c>
@@ -882,8 +836,8 @@
       <c r="Z4">
         <v>0</v>
       </c>
-      <c r="AA4" t="s">
-        <v>29</v>
+      <c r="AA4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -927,19 +881,19 @@
         <v>3</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>90</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -965,8 +919,8 @@
       <c r="Z5">
         <v>0</v>
       </c>
-      <c r="AA5" t="s">
-        <v>30</v>
+      <c r="AA5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
@@ -986,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1010,19 +964,19 @@
         <v>5</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>90</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1048,8 +1002,8 @@
       <c r="Z6">
         <v>0</v>
       </c>
-      <c r="AA6" t="s">
-        <v>31</v>
+      <c r="AA6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -1069,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1093,29 +1047,29 @@
         <v>7</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>90</v>
       </c>
-      <c r="O7">
+      <c r="R7">
+        <v>400</v>
+      </c>
+      <c r="S7">
         <v>110</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
@@ -1131,8 +1085,8 @@
       <c r="Z7">
         <v>0</v>
       </c>
-      <c r="AA7" t="s">
-        <v>32</v>
+      <c r="AA7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -1176,19 +1130,19 @@
         <v>3</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>120</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
       <c r="R8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1214,8 +1168,8 @@
       <c r="Z8">
         <v>0</v>
       </c>
-      <c r="AA8" t="s">
-        <v>33</v>
+      <c r="AA8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -1235,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1259,19 +1213,19 @@
         <v>5</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>120</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1297,8 +1251,8 @@
       <c r="Z9">
         <v>0</v>
       </c>
-      <c r="AA9" t="s">
-        <v>34</v>
+      <c r="AA9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -1318,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1342,29 +1296,29 @@
         <v>7</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>120</v>
       </c>
-      <c r="O10">
+      <c r="R10">
+        <v>60</v>
+      </c>
+      <c r="S10">
         <v>107</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>10</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
@@ -1380,8 +1334,8 @@
       <c r="Z10">
         <v>0</v>
       </c>
-      <c r="AA10" t="s">
-        <v>35</v>
+      <c r="AA10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -1425,19 +1379,19 @@
         <v>5</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>80</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1463,8 +1417,8 @@
       <c r="Z11">
         <v>0</v>
       </c>
-      <c r="AA11" t="s">
-        <v>36</v>
+      <c r="AA11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -1484,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1508,19 +1462,19 @@
         <v>7</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>80</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
       <c r="R12">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1546,8 +1500,8 @@
       <c r="Z12">
         <v>0</v>
       </c>
-      <c r="AA12" t="s">
-        <v>37</v>
+      <c r="AA12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -1567,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1591,29 +1545,29 @@
         <v>9</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>80</v>
       </c>
-      <c r="O13">
+      <c r="R13">
+        <v>150</v>
+      </c>
+      <c r="S13">
         <v>113</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>15</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
@@ -1629,8 +1583,8 @@
       <c r="Z13">
         <v>0</v>
       </c>
-      <c r="AA13" t="s">
-        <v>38</v>
+      <c r="AA13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
@@ -1674,19 +1628,19 @@
         <v>2</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>100</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
       <c r="R14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1712,8 +1666,8 @@
       <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AA14" t="s">
-        <v>39</v>
+      <c r="AA14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
@@ -1733,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1757,19 +1711,19 @@
         <v>3</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>100</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1795,8 +1749,8 @@
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AA15" t="s">
-        <v>40</v>
+      <c r="AA15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -1816,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1840,29 +1794,29 @@
         <v>4</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>100</v>
       </c>
-      <c r="O16">
+      <c r="R16">
+        <v>300</v>
+      </c>
+      <c r="S16">
         <v>115</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>30</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
         <v>0</v>
       </c>
@@ -1878,8 +1832,2083 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AA16" t="s">
-        <v>41</v>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11016</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11017</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>11018</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>100</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>11019</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>90</v>
+      </c>
+      <c r="R20">
+        <v>300</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11020</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>90</v>
+      </c>
+      <c r="R21">
+        <v>400</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11021</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>50</v>
+      </c>
+      <c r="R22">
+        <v>9999</v>
+      </c>
+      <c r="S22">
+        <v>112</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>-90</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11022</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>120</v>
+      </c>
+      <c r="R23">
+        <v>60</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11023</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>120</v>
+      </c>
+      <c r="R24">
+        <v>50</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>11024</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="R25">
+        <v>60</v>
+      </c>
+      <c r="S25">
+        <v>122</v>
+      </c>
+      <c r="T25">
+        <v>12</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>11025</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>80</v>
+      </c>
+      <c r="R26">
+        <v>150</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>11026</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>80</v>
+      </c>
+      <c r="R27">
+        <v>130</v>
+      </c>
+      <c r="S27">
+        <v>113</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>50</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>11027</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>11</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>70</v>
+      </c>
+      <c r="R28">
+        <v>200</v>
+      </c>
+      <c r="S28">
+        <v>107</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>-10</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>11028</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>100</v>
+      </c>
+      <c r="R29">
+        <v>300</v>
+      </c>
+      <c r="S29">
+        <v>124</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>50</v>
+      </c>
+      <c r="V29">
+        <v>113</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>-50</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>11029</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>100</v>
+      </c>
+      <c r="R30">
+        <v>300</v>
+      </c>
+      <c r="S30">
+        <v>113</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>100</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>11030</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>16</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>100</v>
+      </c>
+      <c r="R31">
+        <v>300</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>12001</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>512</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12002</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>512</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>12003</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>512</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12004</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1024</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12005</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1024</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>12006</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1024</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>12007</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>2048</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>104</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>12008</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2048</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>104</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>12009</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2048</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>101</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>12010</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2048</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>101</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/11.Item_Table.xlsx
+++ b/Plan/Table/Live_Data/11.Item_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A6FCF3-D84F-453C-B48C-852484C1B1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0CCD79-4A5F-4DF6-8329-3A2598557B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5F1273DF-0A94-45E4-95E0-A9311B9DF85C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{30C59DE3-8B00-4DB5-9D0B-A1450F3E3DB7}"/>
   </bookViews>
   <sheets>
     <sheet name="11.Item_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>item_id</t>
   </si>
@@ -117,6 +117,144 @@
   </si>
   <si>
     <t>b3_value2</t>
+  </si>
+  <si>
+    <t>battle_option_type_4</t>
+  </si>
+  <si>
+    <t>b4_value1</t>
+  </si>
+  <si>
+    <t>b4_value2</t>
+  </si>
+  <si>
+    <t>item_icon</t>
+  </si>
+  <si>
+    <t>item_11001</t>
+  </si>
+  <si>
+    <t>item_11002</t>
+  </si>
+  <si>
+    <t>item_11003</t>
+  </si>
+  <si>
+    <t>item_11004</t>
+  </si>
+  <si>
+    <t>item_11005</t>
+  </si>
+  <si>
+    <t>item_11006</t>
+  </si>
+  <si>
+    <t>item_11007</t>
+  </si>
+  <si>
+    <t>item_11008</t>
+  </si>
+  <si>
+    <t>item_11009</t>
+  </si>
+  <si>
+    <t>item_11010</t>
+  </si>
+  <si>
+    <t>item_11011</t>
+  </si>
+  <si>
+    <t>item_11012</t>
+  </si>
+  <si>
+    <t>item_11013</t>
+  </si>
+  <si>
+    <t>item_11014</t>
+  </si>
+  <si>
+    <t>item_11015</t>
+  </si>
+  <si>
+    <t>item_11016</t>
+  </si>
+  <si>
+    <t>item_11017</t>
+  </si>
+  <si>
+    <t>item_11018</t>
+  </si>
+  <si>
+    <t>item_11019</t>
+  </si>
+  <si>
+    <t>item_11020</t>
+  </si>
+  <si>
+    <t>item_11021</t>
+  </si>
+  <si>
+    <t>item_11022</t>
+  </si>
+  <si>
+    <t>item_11023</t>
+  </si>
+  <si>
+    <t>item_11024</t>
+  </si>
+  <si>
+    <t>item_11025</t>
+  </si>
+  <si>
+    <t>item_11026</t>
+  </si>
+  <si>
+    <t>item_11027</t>
+  </si>
+  <si>
+    <t>item_11028</t>
+  </si>
+  <si>
+    <t>item_11029</t>
+  </si>
+  <si>
+    <t>item_11030</t>
+  </si>
+  <si>
+    <t>item_12001</t>
+  </si>
+  <si>
+    <t>item_12002</t>
+  </si>
+  <si>
+    <t>item_12003</t>
+  </si>
+  <si>
+    <t>item_12004</t>
+  </si>
+  <si>
+    <t>item_12005</t>
+  </si>
+  <si>
+    <t>item_12006</t>
+  </si>
+  <si>
+    <t>item_12007</t>
+  </si>
+  <si>
+    <t>item_12008</t>
+  </si>
+  <si>
+    <t>item_12009</t>
+  </si>
+  <si>
+    <t>item_12010</t>
+  </si>
+  <si>
+    <t>item_20001</t>
+  </si>
+  <si>
+    <t>item_30001</t>
   </si>
 </sst>
 </file>
@@ -499,16 +637,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD0B68-D450-4A58-830D-A376FB0610E9}">
-  <dimension ref="A1:AA41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004CBEF1-870D-49A8-A400-3251F9970F0C}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1048576"/>
+      <selection sqref="A1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +729,20 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -673,8 +824,20 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -756,8 +919,20 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11003</v>
       </c>
@@ -839,8 +1014,20 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11004</v>
       </c>
@@ -922,8 +1109,20 @@
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11005</v>
       </c>
@@ -1005,8 +1204,20 @@
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11006</v>
       </c>
@@ -1088,8 +1299,20 @@
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11007</v>
       </c>
@@ -1171,8 +1394,20 @@
       <c r="AA8">
         <v>0</v>
       </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11008</v>
       </c>
@@ -1254,8 +1489,20 @@
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11009</v>
       </c>
@@ -1337,8 +1584,20 @@
       <c r="AA10">
         <v>0</v>
       </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11010</v>
       </c>
@@ -1420,8 +1679,20 @@
       <c r="AA11">
         <v>0</v>
       </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11011</v>
       </c>
@@ -1503,8 +1774,20 @@
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11012</v>
       </c>
@@ -1586,8 +1869,20 @@
       <c r="AA13">
         <v>0</v>
       </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11013</v>
       </c>
@@ -1669,8 +1964,20 @@
       <c r="AA14">
         <v>0</v>
       </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11014</v>
       </c>
@@ -1752,8 +2059,20 @@
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11015</v>
       </c>
@@ -1835,8 +2154,20 @@
       <c r="AA16">
         <v>0</v>
       </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11016</v>
       </c>
@@ -1853,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1918,8 +2249,20 @@
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11017</v>
       </c>
@@ -1936,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2001,8 +2344,20 @@
       <c r="AA18">
         <v>0</v>
       </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11018</v>
       </c>
@@ -2019,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2084,8 +2439,20 @@
       <c r="AA19">
         <v>0</v>
       </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11019</v>
       </c>
@@ -2102,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2167,8 +2534,20 @@
       <c r="AA20">
         <v>0</v>
       </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11020</v>
       </c>
@@ -2185,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2250,8 +2629,20 @@
       <c r="AA21">
         <v>0</v>
       </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11021</v>
       </c>
@@ -2268,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2333,8 +2724,20 @@
       <c r="AA22">
         <v>0</v>
       </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11022</v>
       </c>
@@ -2351,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2416,8 +2819,20 @@
       <c r="AA23">
         <v>0</v>
       </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11023</v>
       </c>
@@ -2434,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2499,8 +2914,20 @@
       <c r="AA24">
         <v>0</v>
       </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11024</v>
       </c>
@@ -2517,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2582,8 +3009,20 @@
       <c r="AA25">
         <v>0</v>
       </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11025</v>
       </c>
@@ -2600,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2665,8 +3104,20 @@
       <c r="AA26">
         <v>0</v>
       </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11026</v>
       </c>
@@ -2683,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2748,8 +3199,20 @@
       <c r="AA27">
         <v>0</v>
       </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11027</v>
       </c>
@@ -2766,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2831,8 +3294,20 @@
       <c r="AA28">
         <v>0</v>
       </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11028</v>
       </c>
@@ -2849,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2914,8 +3389,20 @@
       <c r="AA29">
         <v>0</v>
       </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11029</v>
       </c>
@@ -2932,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2997,8 +3484,20 @@
       <c r="AA30">
         <v>0</v>
       </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11030</v>
       </c>
@@ -3015,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3080,835 +3579,2107 @@
       <c r="AA31">
         <v>0</v>
       </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>11031</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>11032</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11033</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>11034</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>11035</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>11036</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>11037</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>11038</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>11039</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>11040</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>12001</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>512</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>12002</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>512</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>3</v>
       </c>
-      <c r="O33">
+      <c r="O43">
         <v>2</v>
       </c>
-      <c r="P33">
+      <c r="P43">
         <v>2</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>12003</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>512</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
         <v>5</v>
       </c>
-      <c r="O34">
+      <c r="O44">
         <v>3</v>
       </c>
-      <c r="P34">
+      <c r="P44">
         <v>3</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>12004</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>1024</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>12005</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <v>1024</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>2</v>
       </c>
-      <c r="O36">
+      <c r="O46">
         <v>3</v>
       </c>
-      <c r="P36">
+      <c r="P46">
         <v>3</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>12006</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>3</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>1024</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <v>3</v>
       </c>
-      <c r="O37">
+      <c r="O47">
         <v>5</v>
       </c>
-      <c r="P37">
+      <c r="P47">
         <v>5</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>12007</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>2048</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
         <v>104</v>
       </c>
-      <c r="T38">
+      <c r="T48">
         <v>2</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>12008</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>2048</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
         <v>104</v>
       </c>
-      <c r="T39">
+      <c r="T49">
         <v>2</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>12009</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>2048</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
         <v>101</v>
       </c>
-      <c r="T40">
+      <c r="T50">
         <v>2</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>12010</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>2048</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
         <v>101</v>
       </c>
-      <c r="T41">
+      <c r="T51">
         <v>2</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>20001</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>100</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>30001</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/11.Item_Table.xlsx
+++ b/Plan/Table/Live_Data/11.Item_Table.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0CCD79-4A5F-4DF6-8329-3A2598557B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D94ABE8-D4C4-4C31-89A0-C9A88A2104E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{30C59DE3-8B00-4DB5-9D0B-A1450F3E3DB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CE69317B-6A51-4E88-9CE9-F47415996666}"/>
   </bookViews>
   <sheets>
     <sheet name="11.Item_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>item_id</t>
   </si>
@@ -47,6 +47,360 @@
     <t>des_id</t>
   </si>
   <si>
+    <t>Item_name_11001</t>
+  </si>
+  <si>
+    <t>Item_des_11001</t>
+  </si>
+  <si>
+    <t>Item_name_11002</t>
+  </si>
+  <si>
+    <t>Item_des_11002</t>
+  </si>
+  <si>
+    <t>Item_name_11003</t>
+  </si>
+  <si>
+    <t>Item_des_11003</t>
+  </si>
+  <si>
+    <t>Item_name_11004</t>
+  </si>
+  <si>
+    <t>Item_des_11004</t>
+  </si>
+  <si>
+    <t>Item_name_11005</t>
+  </si>
+  <si>
+    <t>Item_des_11005</t>
+  </si>
+  <si>
+    <t>Item_name_11006</t>
+  </si>
+  <si>
+    <t>Item_des_11006</t>
+  </si>
+  <si>
+    <t>Item_name_11007</t>
+  </si>
+  <si>
+    <t>Item_des_11007</t>
+  </si>
+  <si>
+    <t>Item_name_11008</t>
+  </si>
+  <si>
+    <t>Item_des_11008</t>
+  </si>
+  <si>
+    <t>Item_name_11009</t>
+  </si>
+  <si>
+    <t>Item_des_11009</t>
+  </si>
+  <si>
+    <t>Item_name_11010</t>
+  </si>
+  <si>
+    <t>Item_des_11010</t>
+  </si>
+  <si>
+    <t>Item_name_11011</t>
+  </si>
+  <si>
+    <t>Item_des_11011</t>
+  </si>
+  <si>
+    <t>Item_name_11012</t>
+  </si>
+  <si>
+    <t>Item_des_11012</t>
+  </si>
+  <si>
+    <t>Item_name_11013</t>
+  </si>
+  <si>
+    <t>Item_des_11013</t>
+  </si>
+  <si>
+    <t>Item_name_11014</t>
+  </si>
+  <si>
+    <t>Item_des_11014</t>
+  </si>
+  <si>
+    <t>Item_name_11015</t>
+  </si>
+  <si>
+    <t>Item_des_11015</t>
+  </si>
+  <si>
+    <t>Item_name_11016</t>
+  </si>
+  <si>
+    <t>Item_des_11016</t>
+  </si>
+  <si>
+    <t>Item_name_11017</t>
+  </si>
+  <si>
+    <t>Item_des_11017</t>
+  </si>
+  <si>
+    <t>Item_name_11018</t>
+  </si>
+  <si>
+    <t>Item_des_11018</t>
+  </si>
+  <si>
+    <t>Item_name_11019</t>
+  </si>
+  <si>
+    <t>Item_des_11019</t>
+  </si>
+  <si>
+    <t>Item_name_11020</t>
+  </si>
+  <si>
+    <t>Item_des_11020</t>
+  </si>
+  <si>
+    <t>Item_name_11021</t>
+  </si>
+  <si>
+    <t>Item_des_11021</t>
+  </si>
+  <si>
+    <t>Item_name_11022</t>
+  </si>
+  <si>
+    <t>Item_des_11022</t>
+  </si>
+  <si>
+    <t>Item_name_11023</t>
+  </si>
+  <si>
+    <t>Item_des_11023</t>
+  </si>
+  <si>
+    <t>Item_name_11024</t>
+  </si>
+  <si>
+    <t>Item_des_11024</t>
+  </si>
+  <si>
+    <t>Item_name_11025</t>
+  </si>
+  <si>
+    <t>Item_des_11025</t>
+  </si>
+  <si>
+    <t>Item_name_11026</t>
+  </si>
+  <si>
+    <t>Item_des_11026</t>
+  </si>
+  <si>
+    <t>Item_name_11027</t>
+  </si>
+  <si>
+    <t>Item_des_11027</t>
+  </si>
+  <si>
+    <t>Item_name_11028</t>
+  </si>
+  <si>
+    <t>Item_des_11028</t>
+  </si>
+  <si>
+    <t>Item_name_11029</t>
+  </si>
+  <si>
+    <t>Item_des_11029</t>
+  </si>
+  <si>
+    <t>Item_name_11030</t>
+  </si>
+  <si>
+    <t>Item_des_11030</t>
+  </si>
+  <si>
+    <t>Item_name_12001</t>
+  </si>
+  <si>
+    <t>Item_des_12001</t>
+  </si>
+  <si>
+    <t>Item_name_12002</t>
+  </si>
+  <si>
+    <t>Item_des_12002</t>
+  </si>
+  <si>
+    <t>Item_name_12003</t>
+  </si>
+  <si>
+    <t>Item_des_12003</t>
+  </si>
+  <si>
+    <t>Item_name_12004</t>
+  </si>
+  <si>
+    <t>Item_des_12004</t>
+  </si>
+  <si>
+    <t>Item_name_12005</t>
+  </si>
+  <si>
+    <t>Item_des_12005</t>
+  </si>
+  <si>
+    <t>Item_name_12006</t>
+  </si>
+  <si>
+    <t>Item_des_12006</t>
+  </si>
+  <si>
+    <t>Item_name_12007</t>
+  </si>
+  <si>
+    <t>Item_des_12007</t>
+  </si>
+  <si>
+    <t>Item_name_12008</t>
+  </si>
+  <si>
+    <t>Item_des_12008</t>
+  </si>
+  <si>
+    <t>Item_name_12009</t>
+  </si>
+  <si>
+    <t>Item_des_12009</t>
+  </si>
+  <si>
+    <t>Item_name_12010</t>
+  </si>
+  <si>
+    <t>Item_des_12010</t>
+  </si>
+  <si>
+    <t>Item_name_12011</t>
+  </si>
+  <si>
+    <t>Item_des_12011</t>
+  </si>
+  <si>
+    <t>Item_name_12012</t>
+  </si>
+  <si>
+    <t>Item_des_12012</t>
+  </si>
+  <si>
+    <t>Item_name_12013</t>
+  </si>
+  <si>
+    <t>Item_des_12013</t>
+  </si>
+  <si>
+    <t>Item_name_12014</t>
+  </si>
+  <si>
+    <t>Item_des_12014</t>
+  </si>
+  <si>
+    <t>Item_name_12015</t>
+  </si>
+  <si>
+    <t>Item_des_12015</t>
+  </si>
+  <si>
+    <t>Item_name_12016</t>
+  </si>
+  <si>
+    <t>Item_des_12016</t>
+  </si>
+  <si>
+    <t>Item_name_12017</t>
+  </si>
+  <si>
+    <t>Item_des_12017</t>
+  </si>
+  <si>
+    <t>Item_name_12018</t>
+  </si>
+  <si>
+    <t>Item_des_12018</t>
+  </si>
+  <si>
+    <t>Item_name_12019</t>
+  </si>
+  <si>
+    <t>Item_des_12019</t>
+  </si>
+  <si>
+    <t>Item_name_12020</t>
+  </si>
+  <si>
+    <t>Item_des_12020</t>
+  </si>
+  <si>
+    <t>Item_name_20001</t>
+  </si>
+  <si>
+    <t>Item_des_20001</t>
+  </si>
+  <si>
+    <t>Item_name_20002</t>
+  </si>
+  <si>
+    <t>Item_des_20002</t>
+  </si>
+  <si>
+    <t>Item_name_20003</t>
+  </si>
+  <si>
+    <t>Item_des_20003</t>
+  </si>
+  <si>
+    <t>Item_name_20004</t>
+  </si>
+  <si>
+    <t>Item_des_20004</t>
+  </si>
+  <si>
+    <t>Item_name_20005</t>
+  </si>
+  <si>
+    <t>Item_des_20005</t>
+  </si>
+  <si>
+    <t>Item_name_20006</t>
+  </si>
+  <si>
+    <t>Item_des_20006</t>
+  </si>
+  <si>
+    <t>Item_name_20007</t>
+  </si>
+  <si>
+    <t>Item_des_20007</t>
+  </si>
+  <si>
+    <t>Item_name_30001</t>
+  </si>
+  <si>
+    <t>Item_des_30001</t>
+  </si>
+  <si>
+    <t>Item_name_90001</t>
+  </si>
+  <si>
+    <t>Item_des_90001</t>
+  </si>
+  <si>
     <t>item_type</t>
   </si>
   <si>
@@ -221,6 +575,36 @@
     <t>item_11030</t>
   </si>
   <si>
+    <t>item_11031</t>
+  </si>
+  <si>
+    <t>item_11032</t>
+  </si>
+  <si>
+    <t>item_11033</t>
+  </si>
+  <si>
+    <t>item_11034</t>
+  </si>
+  <si>
+    <t>item_11035</t>
+  </si>
+  <si>
+    <t>item_11036</t>
+  </si>
+  <si>
+    <t>item_11037</t>
+  </si>
+  <si>
+    <t>item_11038</t>
+  </si>
+  <si>
+    <t>item_11039</t>
+  </si>
+  <si>
+    <t>item_11040</t>
+  </si>
+  <si>
     <t>item_12001</t>
   </si>
   <si>
@@ -251,10 +635,61 @@
     <t>item_12010</t>
   </si>
   <si>
+    <t>item_12011</t>
+  </si>
+  <si>
+    <t>item_12012</t>
+  </si>
+  <si>
+    <t>item_12013</t>
+  </si>
+  <si>
+    <t>item_12014</t>
+  </si>
+  <si>
+    <t>item_12015</t>
+  </si>
+  <si>
+    <t>item_12016</t>
+  </si>
+  <si>
+    <t>item_12017</t>
+  </si>
+  <si>
+    <t>item_12018</t>
+  </si>
+  <si>
+    <t>item_12019</t>
+  </si>
+  <si>
+    <t>item_12020</t>
+  </si>
+  <si>
     <t>item_20001</t>
   </si>
   <si>
+    <t>item_20002</t>
+  </si>
+  <si>
+    <t>item_20003</t>
+  </si>
+  <si>
+    <t>item_20004</t>
+  </si>
+  <si>
+    <t>item_20005</t>
+  </si>
+  <si>
+    <t>item_20006</t>
+  </si>
+  <si>
+    <t>item_20007</t>
+  </si>
+  <si>
     <t>item_30001</t>
+  </si>
+  <si>
+    <t>item_90001</t>
   </si>
 </sst>
 </file>
@@ -637,9 +1072,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004CBEF1-870D-49A8-A400-3251F9970F0C}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6F6F2E-1C2F-47FD-92F1-8CCC1ACCCE81}">
+  <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AE1048576"/>
@@ -658,99 +1092,99 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11001</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -834,18 +1268,18 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11002</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -929,18 +1363,18 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11003</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1024,18 +1458,18 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11004</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1119,18 +1553,18 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11005</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1214,18 +1648,18 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11006</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1309,18 +1743,18 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11007</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1404,18 +1838,18 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11008</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1499,18 +1933,18 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11009</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1594,18 +2028,18 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11010</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1689,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11011</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1784,18 +2218,18 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11012</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1879,18 +2313,18 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11013</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1974,18 +2408,18 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11014</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2069,18 +2503,18 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11015</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2164,18 +2598,18 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11016</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2259,18 +2693,18 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11017</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2354,18 +2788,18 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11018</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2449,18 +2883,18 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11019</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2544,18 +2978,18 @@
         <v>0</v>
       </c>
       <c r="AE20" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11020</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2639,18 +3073,18 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11021</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2734,18 +3168,18 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11022</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2829,18 +3263,18 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>11023</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2924,18 +3358,18 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>11024</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3019,18 +3453,18 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11025</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3114,18 +3548,18 @@
         <v>0</v>
       </c>
       <c r="AE26" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11026</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3209,18 +3643,18 @@
         <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11027</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3304,18 +3738,18 @@
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11028</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3399,18 +3833,18 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11029</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3494,18 +3928,18 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>11030</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3589,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
@@ -3683,8 +4117,8 @@
       <c r="AD32">
         <v>0</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
+      <c r="AE32" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
@@ -3778,8 +4212,8 @@
       <c r="AD33">
         <v>0</v>
       </c>
-      <c r="AE33">
-        <v>0</v>
+      <c r="AE33" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
@@ -3873,8 +4307,8 @@
       <c r="AD34">
         <v>0</v>
       </c>
-      <c r="AE34">
-        <v>0</v>
+      <c r="AE34" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -3968,8 +4402,8 @@
       <c r="AD35">
         <v>0</v>
       </c>
-      <c r="AE35">
-        <v>0</v>
+      <c r="AE35" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -4063,8 +4497,8 @@
       <c r="AD36">
         <v>0</v>
       </c>
-      <c r="AE36">
-        <v>0</v>
+      <c r="AE36" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -4158,8 +4592,8 @@
       <c r="AD37">
         <v>0</v>
       </c>
-      <c r="AE37">
-        <v>0</v>
+      <c r="AE37" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -4253,8 +4687,8 @@
       <c r="AD38">
         <v>0</v>
       </c>
-      <c r="AE38">
-        <v>0</v>
+      <c r="AE38" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -4348,8 +4782,8 @@
       <c r="AD39">
         <v>0</v>
       </c>
-      <c r="AE39">
-        <v>0</v>
+      <c r="AE39" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
@@ -4443,8 +4877,8 @@
       <c r="AD40">
         <v>0</v>
       </c>
-      <c r="AE40">
-        <v>0</v>
+      <c r="AE40" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
@@ -4538,19 +4972,19 @@
       <c r="AD41">
         <v>0</v>
       </c>
-      <c r="AE41">
-        <v>0</v>
+      <c r="AE41" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12001</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4634,18 +5068,18 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12002</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4729,18 +5163,18 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12003</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -4824,18 +5258,18 @@
         <v>0</v>
       </c>
       <c r="AE44" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12004</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4919,18 +5353,18 @@
         <v>0</v>
       </c>
       <c r="AE45" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12005</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5014,18 +5448,18 @@
         <v>0</v>
       </c>
       <c r="AE46" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12006</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5109,18 +5543,18 @@
         <v>0</v>
       </c>
       <c r="AE47" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12007</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5204,18 +5638,18 @@
         <v>0</v>
       </c>
       <c r="AE48" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12008</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -5299,18 +5733,18 @@
         <v>0</v>
       </c>
       <c r="AE49" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12009</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5394,18 +5828,18 @@
         <v>0</v>
       </c>
       <c r="AE50" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12010</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5489,30 +5923,30 @@
         <v>0</v>
       </c>
       <c r="AE51" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20001</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+        <v>12011</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5521,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5533,7 +5967,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5548,13 +5982,13 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>90001</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5584,102 +6018,1717 @@
         <v>0</v>
       </c>
       <c r="AE52" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>12012</v>
+      </c>
+      <c r="B53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>2048</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>105</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>123</v>
+      </c>
+      <c r="W53">
+        <v>16</v>
+      </c>
+      <c r="X53">
+        <v>100</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>12013</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>2048</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>109</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>150</v>
+      </c>
+      <c r="V54">
+        <v>112</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>150</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>12014</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2048</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>112</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>300</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>12015</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>2048</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>107</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>30</v>
+      </c>
+      <c r="V56">
+        <v>122</v>
+      </c>
+      <c r="W56">
+        <v>15</v>
+      </c>
+      <c r="X56">
+        <v>50</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>12016</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2048</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>122</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>5</v>
+      </c>
+      <c r="V57">
+        <v>108</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>15</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>12017</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>2048</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>122</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>5</v>
+      </c>
+      <c r="V58">
+        <v>105</v>
+      </c>
+      <c r="W58">
+        <v>3</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>12018</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>2048</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>133</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>106</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>30</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>12019</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2048</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>123</v>
+      </c>
+      <c r="T60">
+        <v>15</v>
+      </c>
+      <c r="U60">
+        <v>30</v>
+      </c>
+      <c r="V60">
+        <v>123</v>
+      </c>
+      <c r="W60">
+        <v>16</v>
+      </c>
+      <c r="X60">
+        <v>30</v>
+      </c>
+      <c r="Y60">
+        <v>123</v>
+      </c>
+      <c r="Z60">
+        <v>3</v>
+      </c>
+      <c r="AA60">
+        <v>30</v>
+      </c>
+      <c r="AB60">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>12020</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2048</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>13</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>95</v>
+      </c>
+      <c r="V61">
+        <v>113</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>500</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>20001</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>100</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>20002</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>100</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>20003</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>300</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>20004</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>150</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>30</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>20005</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>150</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>30</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>20006</v>
+      </c>
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>100</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>10</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>20007</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>500</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>50</v>
+      </c>
+      <c r="Q68">
+        <v>100</v>
+      </c>
+      <c r="R68">
+        <v>50</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>30001</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69">
         <v>3</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>72</v>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>90001</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/11.Item_Table.xlsx
+++ b/Plan/Table/Live_Data/11.Item_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D94ABE8-D4C4-4C31-89A0-C9A88A2104E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03218CE-1CFB-4021-9D2E-86CA2617A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CE69317B-6A51-4E88-9CE9-F47415996666}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{11ED4D55-9865-40A3-84B9-D89FED7AC1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="11.Item_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>item_id</t>
   </si>
@@ -227,6 +227,30 @@
     <t>Item_des_11030</t>
   </si>
   <si>
+    <t>Item_name_11041</t>
+  </si>
+  <si>
+    <t>Item_des_11041</t>
+  </si>
+  <si>
+    <t>Item_name_11042</t>
+  </si>
+  <si>
+    <t>Item_des_11042</t>
+  </si>
+  <si>
+    <t>Item_name_11043</t>
+  </si>
+  <si>
+    <t>Item_des_11043</t>
+  </si>
+  <si>
+    <t>Item_name_11044</t>
+  </si>
+  <si>
+    <t>Item_des_11044</t>
+  </si>
+  <si>
     <t>Item_name_12001</t>
   </si>
   <si>
@@ -347,6 +371,24 @@
     <t>Item_des_12020</t>
   </si>
   <si>
+    <t>Item_name_12021</t>
+  </si>
+  <si>
+    <t>Item_des_12021</t>
+  </si>
+  <si>
+    <t>Item_name_12022</t>
+  </si>
+  <si>
+    <t>Item_des_12022</t>
+  </si>
+  <si>
+    <t>Item_name_12023</t>
+  </si>
+  <si>
+    <t>Item_des_12023</t>
+  </si>
+  <si>
     <t>Item_name_20001</t>
   </si>
   <si>
@@ -605,6 +647,18 @@
     <t>item_11040</t>
   </si>
   <si>
+    <t>item_11041</t>
+  </si>
+  <si>
+    <t>item_11042</t>
+  </si>
+  <si>
+    <t>item_11043</t>
+  </si>
+  <si>
+    <t>item_11044</t>
+  </si>
+  <si>
     <t>item_12001</t>
   </si>
   <si>
@@ -663,6 +717,15 @@
   </si>
   <si>
     <t>item_12020</t>
+  </si>
+  <si>
+    <t>item_12021</t>
+  </si>
+  <si>
+    <t>item_12022</t>
+  </si>
+  <si>
+    <t>item_12023</t>
   </si>
   <si>
     <t>item_20001</t>
@@ -1072,8 +1135,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6F6F2E-1C2F-47FD-92F1-8CCC1ACCCE81}">
-  <dimension ref="A1:AE70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDC8262-67FC-4225-8A56-E4656EAD8AAC}">
+  <dimension ref="A1:AE78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AE1048576"/>
@@ -1092,111 +1155,111 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="V1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="W1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="X1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Y1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="Z1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="AA1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="AB1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="AC1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="AD1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="AE1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11001</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1205,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1226,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -1267,19 +1330,19 @@
       <c r="AD2">
         <v>0</v>
       </c>
-      <c r="AE2" t="s">
-        <v>149</v>
+      <c r="AE2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1288,28 +1351,28 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
         <v>4</v>
-      </c>
-      <c r="M3">
-        <v>6</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1363,18 +1426,18 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1383,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1401,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
         <v>6</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1422,13 +1485,13 @@
         <v>100</v>
       </c>
       <c r="S4">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1458,73 +1521,73 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>113</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>90</v>
-      </c>
-      <c r="R5">
-        <v>400</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -1553,18 +1616,18 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1573,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1591,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>3</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1648,18 +1711,18 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1668,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1686,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>5</v>
-      </c>
-      <c r="M7">
-        <v>7</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1707,13 +1770,13 @@
         <v>400</v>
       </c>
       <c r="S7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1743,18 +1806,18 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1763,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1775,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1796,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R8">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1838,18 +1901,18 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1858,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1876,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>3</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1933,18 +1996,18 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1953,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1971,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
         <v>5</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1992,13 +2055,13 @@
         <v>60</v>
       </c>
       <c r="S10">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2028,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2048,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2060,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2081,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R11">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2123,18 +2186,18 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11011</v>
+        <v>11010</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2143,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2161,10 +2224,10 @@
         <v>1</v>
       </c>
       <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
         <v>5</v>
-      </c>
-      <c r="M12">
-        <v>7</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2218,18 +2281,18 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11012</v>
+        <v>11011</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2238,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2256,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
         <v>7</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2277,13 +2340,13 @@
         <v>150</v>
       </c>
       <c r="S13">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2313,18 +2376,18 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11013</v>
+        <v>11012</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2333,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2345,16 +2408,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2366,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R14">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2408,18 +2471,18 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11014</v>
+        <v>11013</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2428,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2446,10 +2509,10 @@
         <v>2</v>
       </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>2</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2503,18 +2566,18 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11015</v>
+        <v>11014</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2523,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2541,10 +2604,10 @@
         <v>2</v>
       </c>
       <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
         <v>3</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2562,13 +2625,13 @@
         <v>300</v>
       </c>
       <c r="S16">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2598,18 +2661,18 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>11016</v>
+        <v>11015</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2618,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2630,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -2654,16 +2717,16 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2693,18 +2756,18 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>11017</v>
+        <v>11016</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2731,10 +2794,10 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2788,18 +2851,18 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>11018</v>
+        <v>11017</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2826,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2883,18 +2946,18 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>11019</v>
+        <v>11018</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2915,16 +2978,16 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>8</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
       <c r="M20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2936,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R20">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2978,18 +3041,18 @@
         <v>0</v>
       </c>
       <c r="AE20" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>11020</v>
+        <v>11019</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3019,7 +3082,7 @@
         <v>5</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3034,7 +3097,7 @@
         <v>90</v>
       </c>
       <c r="R21">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3073,18 +3136,18 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>11021</v>
+        <v>11020</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -3111,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3126,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="R22">
-        <v>9999</v>
+        <v>400</v>
       </c>
       <c r="S22">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3168,18 +3231,18 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>11022</v>
+        <v>11021</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3200,16 +3263,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3221,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="R23">
-        <v>60</v>
+        <v>9999</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3263,18 +3326,18 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>11023</v>
+        <v>11022</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3301,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3319,7 +3382,7 @@
         <v>120</v>
       </c>
       <c r="R24">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3358,18 +3421,18 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>11024</v>
+        <v>11023</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3396,10 +3459,10 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3411,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S25">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3453,18 +3516,18 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>11025</v>
+        <v>11024</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3485,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3506,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="R26">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3548,18 +3611,18 @@
         <v>0</v>
       </c>
       <c r="AE26" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>11026</v>
+        <v>11025</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3586,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -3604,16 +3667,16 @@
         <v>80</v>
       </c>
       <c r="R27">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="S27">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3643,18 +3706,18 @@
         <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>11027</v>
+        <v>11026</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3681,10 +3744,10 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3696,19 +3759,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R28">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="S28">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3738,18 +3801,18 @@
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>11028</v>
+        <v>11027</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3770,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3791,28 +3854,28 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S29">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="V29">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3833,18 +3896,18 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11029</v>
+        <v>11028</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3871,10 +3934,10 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3892,22 +3955,22 @@
         <v>300</v>
       </c>
       <c r="S30">
+        <v>124</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>50</v>
+      </c>
+      <c r="V30">
         <v>113</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>100</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3928,18 +3991,18 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>11030</v>
+        <v>11029</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3966,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -3987,13 +4050,13 @@
         <v>300</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -4023,18 +4086,18 @@
         <v>0</v>
       </c>
       <c r="AE31" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>11031</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+        <v>11030</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4043,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4055,16 +4118,16 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4076,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4118,12 +4181,12 @@
         <v>0</v>
       </c>
       <c r="AE32" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>11032</v>
+        <v>11031</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4213,12 +4276,12 @@
         <v>0</v>
       </c>
       <c r="AE33" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>11033</v>
+        <v>11032</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4308,12 +4371,12 @@
         <v>0</v>
       </c>
       <c r="AE34" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>11034</v>
+        <v>11033</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4403,12 +4466,12 @@
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>11035</v>
+        <v>11034</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4498,12 +4561,12 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>11036</v>
+        <v>11035</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4593,12 +4656,12 @@
         <v>0</v>
       </c>
       <c r="AE37" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>11037</v>
+        <v>11036</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4688,12 +4751,12 @@
         <v>0</v>
       </c>
       <c r="AE38" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>11038</v>
+        <v>11037</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4783,12 +4846,12 @@
         <v>0</v>
       </c>
       <c r="AE39" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>11039</v>
+        <v>11038</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4878,12 +4941,12 @@
         <v>0</v>
       </c>
       <c r="AE40" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11040</v>
+        <v>11039</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4973,18 +5036,18 @@
         <v>0</v>
       </c>
       <c r="AE41" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12001</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
+        <v>11040</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4993,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5005,25 +5068,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -5068,18 +5131,18 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>12002</v>
+        <v>11041</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5088,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5100,31 +5163,31 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>512</v>
+        <v>32</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5163,18 +5226,18 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>12003</v>
+        <v>11042</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5183,43 +5246,43 @@
         <v>0</v>
       </c>
       <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
         <v>3</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>512</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
       <c r="M44">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5258,18 +5321,18 @@
         <v>0</v>
       </c>
       <c r="AE44" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>12004</v>
+        <v>11043</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -5278,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5290,31 +5353,31 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5353,18 +5416,18 @@
         <v>0</v>
       </c>
       <c r="AE45" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>12005</v>
+        <v>11044</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5373,43 +5436,43 @@
         <v>0</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>2</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1024</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
       <c r="M46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5448,18 +5511,18 @@
         <v>0</v>
       </c>
       <c r="AE46" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>12006</v>
+        <v>12001</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5468,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5480,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -5492,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -5543,18 +5606,18 @@
         <v>0</v>
       </c>
       <c r="AE47" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>12007</v>
+        <v>12002</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5563,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5575,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5587,13 +5650,13 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -5602,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="S48">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -5638,18 +5701,18 @@
         <v>0</v>
       </c>
       <c r="AE48" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>12008</v>
+        <v>12003</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -5658,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5670,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>2048</v>
+        <v>512</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5682,13 +5745,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -5697,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -5733,18 +5796,18 @@
         <v>0</v>
       </c>
       <c r="AE49" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>12009</v>
+        <v>12004</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5765,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5777,13 +5840,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -5792,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -5828,18 +5891,18 @@
         <v>0</v>
       </c>
       <c r="AE50" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>12010</v>
+        <v>12005</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5848,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5860,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5872,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -5887,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -5923,18 +5986,18 @@
         <v>0</v>
       </c>
       <c r="AE51" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>12011</v>
+        <v>12006</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -5943,37 +6006,37 @@
         <v>0</v>
       </c>
       <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1024</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
         <v>5</v>
       </c>
-      <c r="G52">
-        <v>100</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>2048</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -5982,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>90001</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -6018,18 +6081,18 @@
         <v>0</v>
       </c>
       <c r="AE52" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12012</v>
+        <v>12007</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -6038,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6077,22 +6140,22 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
       <c r="V53">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -6113,18 +6176,18 @@
         <v>0</v>
       </c>
       <c r="AE53" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12013</v>
+        <v>12008</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6133,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6172,22 +6235,22 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -6208,18 +6271,18 @@
         <v>0</v>
       </c>
       <c r="AE54" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12014</v>
+        <v>12009</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -6228,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6267,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -6303,18 +6366,18 @@
         <v>0</v>
       </c>
       <c r="AE55" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12015</v>
+        <v>12010</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -6323,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6362,22 +6425,22 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -6398,18 +6461,18 @@
         <v>0</v>
       </c>
       <c r="AE56" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12016</v>
+        <v>12011</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -6418,10 +6481,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6457,22 +6520,22 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>90001</v>
       </c>
       <c r="U57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -6493,18 +6556,18 @@
         <v>0</v>
       </c>
       <c r="AE57" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>12017</v>
+        <v>12012</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -6552,22 +6615,22 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="W58">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -6588,18 +6651,18 @@
         <v>0</v>
       </c>
       <c r="AE58" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>12018</v>
+        <v>12013</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -6647,22 +6710,22 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="V59">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -6683,18 +6746,18 @@
         <v>0</v>
       </c>
       <c r="AE59" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>12019</v>
+        <v>12014</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -6742,31 +6805,31 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="T60">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="V60">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -6778,18 +6841,18 @@
         <v>0</v>
       </c>
       <c r="AE60" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>12020</v>
+        <v>12015</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -6798,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6837,22 +6900,22 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="V61">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X61">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -6873,27 +6936,27 @@
         <v>0</v>
       </c>
       <c r="AE61" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20001</v>
+        <v>12016</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6905,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6917,10 +6980,10 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -6932,22 +6995,22 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -6968,78 +7031,78 @@
         <v>0</v>
       </c>
       <c r="AE62" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20002</v>
+        <v>12017</v>
       </c>
       <c r="B63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2048</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>122</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>5</v>
+      </c>
+      <c r="V63">
         <v>105</v>
       </c>
-      <c r="C63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>100</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
       <c r="W63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X63">
         <v>0</v>
@@ -7063,27 +7126,27 @@
         <v>0</v>
       </c>
       <c r="AE63" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>20003</v>
+        <v>12018</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7095,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -7107,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -7122,22 +7185,22 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -7158,27 +7221,27 @@
         <v>0</v>
       </c>
       <c r="AE64" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20004</v>
+        <v>12019</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7190,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -7202,10 +7265,10 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -7214,34 +7277,34 @@
         <v>0</v>
       </c>
       <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>123</v>
+      </c>
+      <c r="T65">
+        <v>15</v>
+      </c>
+      <c r="U65">
         <v>30</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
       <c r="V65">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7253,27 +7316,27 @@
         <v>0</v>
       </c>
       <c r="AE65" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>20005</v>
+        <v>12020</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7285,7 +7348,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -7297,13 +7360,13 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -7312,22 +7375,22 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7348,60 +7411,60 @@
         <v>0</v>
       </c>
       <c r="AE66" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>20006</v>
+        <v>12021</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>512</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>2</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>100</v>
-      </c>
       <c r="O67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -7443,63 +7506,63 @@
         <v>0</v>
       </c>
       <c r="AE67" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20007</v>
+        <v>12022</v>
       </c>
       <c r="B68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>512</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
         <v>2</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>500</v>
-      </c>
       <c r="O68">
         <v>1</v>
       </c>
       <c r="P68">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -7538,30 +7601,30 @@
         <v>0</v>
       </c>
       <c r="AE68" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>30001</v>
+        <v>12023</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7570,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -7582,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -7633,102 +7696,862 @@
         <v>0</v>
       </c>
       <c r="AE69" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70">
+        <v>20001</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>100</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>20002</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>100</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>20003</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>300</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>20004</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>150</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>30</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>20005</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>150</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>30</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>20006</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>100</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>10</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>20007</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>500</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>50</v>
+      </c>
+      <c r="Q76">
+        <v>100</v>
+      </c>
+      <c r="R76">
+        <v>50</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>30001</v>
+      </c>
+      <c r="B77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>90001</v>
       </c>
-      <c r="B70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70">
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78">
         <v>4</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>217</v>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/11.Item_Table.xlsx
+++ b/Plan/Table/Live_Data/11.Item_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E03218CE-1CFB-4021-9D2E-86CA2617A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A59E7F-FB01-4913-A825-7C3B85D8CD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{11ED4D55-9865-40A3-84B9-D89FED7AC1EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FDA40396-0838-4BAF-8534-A18C174039CB}"/>
   </bookViews>
   <sheets>
     <sheet name="11.Item_Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>item_id</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>Item_des_11044</t>
+  </si>
+  <si>
+    <t>Item_name_11045</t>
+  </si>
+  <si>
+    <t>Item_des_11045</t>
+  </si>
+  <si>
+    <t>Item_name_11046</t>
+  </si>
+  <si>
+    <t>Item_des_11046</t>
   </si>
   <si>
     <t>Item_name_12001</t>
@@ -1135,8 +1147,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDC8262-67FC-4225-8A56-E4656EAD8AAC}">
-  <dimension ref="A1:AE78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33479D2E-E832-4D19-A8A0-EC1236B0B11C}">
+  <dimension ref="A1:AE80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AE1048576"/>
@@ -1155,88 +1167,88 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="R1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="T1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="V1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="W1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="X1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Y1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Z1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AA1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AB1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AC1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AD1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AE1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -1426,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
@@ -1521,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
@@ -1616,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
@@ -1711,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
@@ -1806,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
@@ -1901,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -1996,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
@@ -2091,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
@@ -2186,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
@@ -2281,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AE12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
@@ -2376,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.3">
@@ -2471,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
@@ -2566,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
@@ -2661,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
@@ -2756,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
@@ -2851,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
@@ -2946,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
@@ -3041,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AE20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
@@ -3136,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AE21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
@@ -3231,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
@@ -3326,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
@@ -3421,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="AE24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
@@ -3516,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="AE25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
@@ -3611,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
@@ -3706,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -3801,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
@@ -3896,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
@@ -3991,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
@@ -4086,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
@@ -4181,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="AE32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
@@ -4276,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="AE33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
@@ -4371,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -4466,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -4561,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AE36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -4656,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -4751,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="AE38" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -4846,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="AE39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
@@ -4941,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AE40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
@@ -5036,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AE41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
@@ -5131,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="AE42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
@@ -5226,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="AE43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
@@ -5321,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AE44" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
@@ -5416,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="AE45" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
@@ -5511,12 +5523,12 @@
         <v>0</v>
       </c>
       <c r="AE46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>12001</v>
+        <v>11045</v>
       </c>
       <c r="B47" t="s">
         <v>71</v>
@@ -5543,75 +5555,30 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>12002</v>
+        <v>11046</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
@@ -5638,75 +5605,30 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>2</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="B49" t="s">
         <v>75</v>
@@ -5721,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5745,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -5796,12 +5718,12 @@
         <v>0</v>
       </c>
       <c r="AE49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>12004</v>
+        <v>12002</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -5816,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5828,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5840,13 +5762,13 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -5891,12 +5813,12 @@
         <v>0</v>
       </c>
       <c r="AE50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="B51" t="s">
         <v>79</v>
@@ -5911,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5923,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5935,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O51">
         <v>3</v>
@@ -5986,12 +5908,12 @@
         <v>0</v>
       </c>
       <c r="AE51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>12006</v>
+        <v>12004</v>
       </c>
       <c r="B52" t="s">
         <v>81</v>
@@ -6006,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6030,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -6081,12 +6003,12 @@
         <v>0</v>
       </c>
       <c r="AE52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>12007</v>
+        <v>12005</v>
       </c>
       <c r="B53" t="s">
         <v>83</v>
@@ -6101,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6113,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -6125,13 +6047,13 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -6140,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -6176,12 +6098,12 @@
         <v>0</v>
       </c>
       <c r="AE53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="B54" t="s">
         <v>85</v>
@@ -6196,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -6208,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -6220,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -6235,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="S54">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -6271,12 +6193,12 @@
         <v>0</v>
       </c>
       <c r="AE54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>12009</v>
+        <v>12007</v>
       </c>
       <c r="B55" t="s">
         <v>87</v>
@@ -6330,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T55">
         <v>2</v>
@@ -6366,12 +6288,12 @@
         <v>0</v>
       </c>
       <c r="AE55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="B56" t="s">
         <v>89</v>
@@ -6425,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="T56">
         <v>2</v>
@@ -6461,12 +6383,12 @@
         <v>0</v>
       </c>
       <c r="AE56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12011</v>
+        <v>12009</v>
       </c>
       <c r="B57" t="s">
         <v>91</v>
@@ -6481,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -6520,13 +6442,13 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="T57">
-        <v>90001</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6556,12 +6478,12 @@
         <v>0</v>
       </c>
       <c r="AE57" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>12012</v>
+        <v>12010</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
@@ -6576,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6615,22 +6537,22 @@
         <v>0</v>
       </c>
       <c r="S58">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="T58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="X58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -6651,12 +6573,12 @@
         <v>0</v>
       </c>
       <c r="AE58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>12013</v>
+        <v>12011</v>
       </c>
       <c r="B59" t="s">
         <v>95</v>
@@ -6671,10 +6593,10 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6710,22 +6632,22 @@
         <v>0</v>
       </c>
       <c r="S59">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>90001</v>
       </c>
       <c r="U59">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -6746,12 +6668,12 @@
         <v>0</v>
       </c>
       <c r="AE59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>12014</v>
+        <v>12012</v>
       </c>
       <c r="B60" t="s">
         <v>97</v>
@@ -6805,22 +6727,22 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U60">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -6841,12 +6763,12 @@
         <v>0</v>
       </c>
       <c r="AE60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>12015</v>
+        <v>12013</v>
       </c>
       <c r="B61" t="s">
         <v>99</v>
@@ -6861,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6900,22 +6822,22 @@
         <v>0</v>
       </c>
       <c r="S61">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="V61">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="W61">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -6936,12 +6858,12 @@
         <v>0</v>
       </c>
       <c r="AE61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>12016</v>
+        <v>12014</v>
       </c>
       <c r="B62" t="s">
         <v>101</v>
@@ -6956,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6995,22 +6917,22 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="V62">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -7031,12 +6953,12 @@
         <v>0</v>
       </c>
       <c r="AE62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>12017</v>
+        <v>12015</v>
       </c>
       <c r="B63" t="s">
         <v>103</v>
@@ -7051,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7090,22 +7012,22 @@
         <v>0</v>
       </c>
       <c r="S63">
+        <v>107</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>30</v>
+      </c>
+      <c r="V63">
         <v>122</v>
       </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>5</v>
-      </c>
-      <c r="V63">
-        <v>105</v>
-      </c>
       <c r="W63">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -7126,12 +7048,12 @@
         <v>0</v>
       </c>
       <c r="AE63" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>12018</v>
+        <v>12016</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
@@ -7146,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -7185,22 +7107,22 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V64">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -7221,12 +7143,12 @@
         <v>0</v>
       </c>
       <c r="AE64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>12019</v>
+        <v>12017</v>
       </c>
       <c r="B65" t="s">
         <v>107</v>
@@ -7280,31 +7202,31 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T65">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="V65">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="W65">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="X65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7316,12 +7238,12 @@
         <v>0</v>
       </c>
       <c r="AE65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>12020</v>
+        <v>12018</v>
       </c>
       <c r="B66" t="s">
         <v>109</v>
@@ -7336,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -7375,22 +7297,22 @@
         <v>0</v>
       </c>
       <c r="S66">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -7411,12 +7333,12 @@
         <v>0</v>
       </c>
       <c r="AE66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>12021</v>
+        <v>12019</v>
       </c>
       <c r="B67" t="s">
         <v>111</v>
@@ -7431,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7443,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -7455,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -7470,31 +7392,31 @@
         <v>0</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -7506,12 +7428,12 @@
         <v>0</v>
       </c>
       <c r="AE67" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>12022</v>
+        <v>12020</v>
       </c>
       <c r="B68" t="s">
         <v>113</v>
@@ -7526,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -7538,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -7550,13 +7472,13 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -7565,22 +7487,22 @@
         <v>0</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -7601,12 +7523,12 @@
         <v>0</v>
       </c>
       <c r="AE68" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>12023</v>
+        <v>12021</v>
       </c>
       <c r="B69" t="s">
         <v>115</v>
@@ -7621,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -7645,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -7696,12 +7618,12 @@
         <v>0</v>
       </c>
       <c r="AE69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20001</v>
+        <v>12022</v>
       </c>
       <c r="B70" t="s">
         <v>117</v>
@@ -7710,43 +7632,43 @@
         <v>118</v>
       </c>
       <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>512</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>2</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>100</v>
-      </c>
       <c r="O70">
         <v>1</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -7791,12 +7713,12 @@
         <v>0</v>
       </c>
       <c r="AE70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20002</v>
+        <v>12023</v>
       </c>
       <c r="B71" t="s">
         <v>119</v>
@@ -7805,14 +7727,14 @@
         <v>120</v>
       </c>
       <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
         <v>2</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
       <c r="G71">
         <v>0</v>
       </c>
@@ -7823,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -7835,13 +7757,13 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -7886,12 +7808,12 @@
         <v>0</v>
       </c>
       <c r="AE71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20003</v>
+        <v>20001</v>
       </c>
       <c r="B72" t="s">
         <v>121</v>
@@ -7930,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -7981,12 +7903,12 @@
         <v>0</v>
       </c>
       <c r="AE72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="B73" t="s">
         <v>123</v>
@@ -8025,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -8037,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -8076,12 +7998,12 @@
         <v>0</v>
       </c>
       <c r="AE73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20005</v>
+        <v>20003</v>
       </c>
       <c r="B74" t="s">
         <v>125</v>
@@ -8120,13 +8042,13 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -8171,12 +8093,12 @@
         <v>0</v>
       </c>
       <c r="AE74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20006</v>
+        <v>20004</v>
       </c>
       <c r="B75" t="s">
         <v>127</v>
@@ -8215,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -8224,10 +8146,10 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -8266,12 +8188,12 @@
         <v>0</v>
       </c>
       <c r="AE75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20007</v>
+        <v>20005</v>
       </c>
       <c r="B76" t="s">
         <v>129</v>
@@ -8310,19 +8232,19 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="O76">
         <v>1</v>
       </c>
       <c r="P76">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q76">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -8361,12 +8283,12 @@
         <v>0</v>
       </c>
       <c r="AE76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>30001</v>
+        <v>20006</v>
       </c>
       <c r="B77" t="s">
         <v>131</v>
@@ -8375,16 +8297,16 @@
         <v>132</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -8405,16 +8327,16 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R77">
         <v>0</v>
@@ -8456,12 +8378,12 @@
         <v>0</v>
       </c>
       <c r="AE77" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>90001</v>
+        <v>20007</v>
       </c>
       <c r="B78" t="s">
         <v>133</v>
@@ -8470,88 +8392,278 @@
         <v>134</v>
       </c>
       <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>500</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>50</v>
+      </c>
+      <c r="Q78">
+        <v>100</v>
+      </c>
+      <c r="R78">
+        <v>50</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>30001</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>90001</v>
+      </c>
+      <c r="B80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80">
         <v>4</v>
       </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>238</v>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Table/Live_Data/11.Item_Table.xlsx
+++ b/Plan/Table/Live_Data/11.Item_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\인디\FluffyDiscatDevelop\Plan\Table\Live_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A59E7F-FB01-4913-A825-7C3B85D8CD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3FEDD5B-AB09-4347-A68C-8F0C1A38D40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FDA40396-0838-4BAF-8534-A18C174039CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{66416B43-34F1-44D8-81E6-D4CC5CE899E4}"/>
   </bookViews>
   <sheets>
     <sheet name="11.Item_Table" sheetId="1" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33479D2E-E832-4D19-A8A0-EC1236B0B11C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36722E7-F3E6-4F5D-9A39-ECC5EE2769C1}">
   <dimension ref="A1:AE80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1253,7 +1253,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1101</v>
+        <v>4001</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1101</v>
+        <v>4001</v>
       </c>
       <c r="H2">
         <v>0</v>
